--- a/results/I3_N5_M2_T30_C150_DepCentral_s1_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1390.338586491315</v>
+        <v>1336.887671992265</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.668655038127952</v>
+        <v>5.516105791537404</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.668655038127952</v>
+        <v>3.788310969284333</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>781.9999999999984</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>578.75</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>3.695361957914272</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.516105791537406</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.914294316987419</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.75054662682655</v>
+        <v>7.44590858474082</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.27973517692068</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.49249770206973</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.72026482307932</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,15 +1071,71 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>103.6649999999988</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.43999999999883</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>91.94499999999883</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>97.30499999999884</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>102.0549999999988</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.88999999999913</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.16999999999913</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>191.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.2850000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>195.4400000000008</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>191.6950000000008</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>189.2200000000008</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>192.6799999999992</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>182.1599999999992</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>176.6099999999992</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>186.9299999999992</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>195.4799999999992</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>191.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.2850000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>195.4400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>191.6950000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>189.2200000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.6799999999992</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>182.1599999999992</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>176.6099999999992</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>186.9299999999992</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.4799999999992</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>39.28500000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>45.44000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>41.69500000000082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>39.22000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.67999999999918</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>32.1599999999992</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.60999999999919</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>36.92999999999921</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>45.47999999999922</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2076,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2087,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2098,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2109,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2120,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2131,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2142,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2153,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2164,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
